--- a/data/PECO Jul 20.xlsx
+++ b/data/PECO Jul 20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marissa\Documents\Citation-Network-Analysis-New\Citation-Network-Analysis-New\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2286432b\OneDrive - University of Glasgow\R Studio - home folder\Citation network analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7CA5AC-1C07-46FE-9944-D0C738017B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7CA5AC-1C07-46FE-9944-D0C738017B6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PECO Full" sheetId="3" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1016,25 +1014,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="3"/>
-    <col min="2" max="2" width="33.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="3"/>
+    <col min="8" max="8" width="26.85546875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1058,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1086,7 +1084,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1112,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1138,7 +1136,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1164,7 +1162,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1190,7 +1188,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1216,7 +1214,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1242,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1268,7 +1266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1424,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1450,7 +1448,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1502,7 +1500,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1528,7 +1526,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1554,7 +1552,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1580,7 +1578,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1606,7 +1604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1632,7 +1630,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1658,7 +1656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1710,7 +1708,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1736,7 +1734,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1762,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1788,7 +1786,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1814,7 +1812,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1840,7 +1838,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1889,7 +1887,7 @@
       </c>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -1941,7 +1939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1993,7 +1991,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2019,7 +2017,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2045,7 +2043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -2071,7 +2069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -2123,7 +2121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -2149,7 +2147,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -2175,7 +2173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -2201,7 +2199,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -2253,7 +2251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -2279,7 +2277,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -2305,7 +2303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -2331,7 +2329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -2357,7 +2355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -2383,7 +2381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -2409,7 +2407,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -2435,7 +2433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -2501,49 +2499,49 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2703,15 +2701,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F76E9A0E-D7EE-4BF5-A12E-4E5F702CFFF0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/PECO Jul 20.xlsx
+++ b/data/PECO Jul 20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2286432b\OneDrive - University of Glasgow\R Studio - home folder\Citation network analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marissa\Documents\Citation-Network-Analysis-New\Citation-Network-Analysis-New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7CA5AC-1C07-46FE-9944-D0C738017B6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F38CF-92CA-4F76-8DEF-15BA2702E981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PECO Full" sheetId="3" r:id="rId1"/>
@@ -550,9 +550,6 @@
     <t>Huang, J et al. (2014b)</t>
   </si>
   <si>
-    <t>Wills, TA et al. (2016b)</t>
-  </si>
-  <si>
     <t>Ballbe, M et al. (2014)</t>
   </si>
   <si>
@@ -590,6 +587,9 @@
   </si>
   <si>
     <t>ENDs and ENNDS for smoking cessation</t>
+  </si>
+  <si>
+    <t>Wills, TA et al. (2016a)</t>
   </si>
 </sst>
 </file>
@@ -1019,20 +1019,20 @@
       <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="33.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" style="3" customWidth="1"/>
     <col min="4" max="4" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="26.81640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1534,16 +1534,16 @@
         <v>169</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>152</v>
@@ -1552,7 +1552,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>158</v>
@@ -1682,7 +1682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1950,13 +1950,13 @@
         <v>25</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>103</v>
@@ -1965,7 +1965,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>22</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>77</v>
@@ -2043,21 +2043,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>129</v>
@@ -2069,7 +2069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2095,12 +2095,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>119</v>
@@ -2121,7 +2121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -2225,12 +2225,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>86</v>
@@ -2242,16 +2242,16 @@
         <v>58</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -2499,49 +2499,49 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2552,12 +2552,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF7793DA0DEC7646B4067AE33236EE6A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a48280fc6c2b4371bf74abb2bee37b06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c55d3ce8-937e-4dcf-883e-347e1ce052b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="81c33a3acb51a74fa588efcfe98e5c44" ns3:_="">
     <xsd:import namespace="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
@@ -2689,6 +2683,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2699,22 +2699,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F76E9A0E-D7EE-4BF5-A12E-4E5F702CFFF0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8068956F-FE7C-4286-A5F2-2ED11E40F0B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2732,6 +2716,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F76E9A0E-D7EE-4BF5-A12E-4E5F702CFFF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DACEE4-B390-44A7-883A-AFBB4DC509ED}">
   <ds:schemaRefs>

--- a/data/PECO Jul 20.xlsx
+++ b/data/PECO Jul 20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marissa\Documents\Citation-Network-Analysis-New\Citation-Network-Analysis-New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F38CF-92CA-4F76-8DEF-15BA2702E981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F2D8A-14D5-4D18-9F9D-7F1D766096B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -391,12 +393,6 @@
     <t>Hess, IM et al. (2016)</t>
   </si>
   <si>
-    <t>Non-smokers</t>
-  </si>
-  <si>
-    <t>Nicotine exposure</t>
-  </si>
-  <si>
     <t>Kalkhoran, S and Glantz, SA (2016)</t>
   </si>
   <si>
@@ -493,9 +489,6 @@
     <t>longitudinal</t>
   </si>
   <si>
-    <t>cross sectional</t>
-  </si>
-  <si>
     <t>pharmaceutical</t>
   </si>
   <si>
@@ -548,9 +541,6 @@
   </si>
   <si>
     <t>Huang, J et al. (2014b)</t>
-  </si>
-  <si>
-    <t>Ballbe, M et al. (2014)</t>
   </si>
   <si>
     <t>El Dib, R et al. (2017)</t>
@@ -1012,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1040,22 +1030,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1078,10 +1068,10 @@
         <v>30</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1104,7 +1094,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>8</v>
@@ -1133,7 +1123,7 @@
         <v>103</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1141,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>16</v>
@@ -1153,13 +1143,13 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1167,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>100</v>
@@ -1185,7 +1175,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -1208,10 +1198,10 @@
         <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1245,22 +1235,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>78</v>
@@ -1271,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -1286,7 +1276,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>8</v>
@@ -1297,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>10</v>
@@ -1309,10 +1299,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>78</v>
@@ -1338,10 +1328,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1367,7 +1357,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1393,7 +1383,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1416,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>8</v>
@@ -1442,10 +1432,10 @@
         <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1468,10 +1458,10 @@
         <v>40</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -1497,7 +1487,7 @@
         <v>103</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -1505,7 +1495,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>17</v>
@@ -1520,7 +1510,7 @@
         <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>78</v>
@@ -1531,22 +1521,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>78</v>
@@ -1572,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -1583,7 +1573,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>42</v>
@@ -1595,10 +1585,10 @@
         <v>87</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>78</v>
@@ -1609,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>42</v>
@@ -1621,13 +1611,13 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -1635,7 +1625,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>42</v>
@@ -1647,10 +1637,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>78</v>
@@ -1661,7 +1651,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
@@ -1673,10 +1663,10 @@
         <v>17</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>78</v>
@@ -1705,7 +1695,7 @@
         <v>103</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1713,7 +1703,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>97</v>
@@ -1731,7 +1721,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -1783,7 +1773,7 @@
         <v>37</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -1791,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>10</v>
@@ -1803,13 +1793,13 @@
         <v>33</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1832,10 +1822,10 @@
         <v>94</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1843,10 +1833,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>11</v>
@@ -1855,7 +1845,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>116</v>
@@ -1892,7 +1882,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>42</v>
@@ -1904,13 +1894,13 @@
         <v>17</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1933,7 +1923,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>8</v>
@@ -1944,25 +1934,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1988,7 +1978,7 @@
         <v>37</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -2011,10 +2001,10 @@
         <v>48</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2022,7 +2012,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>52</v>
@@ -2034,7 +2024,7 @@
         <v>22</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>77</v>
@@ -2048,22 +2038,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>78</v>
@@ -2089,7 +2079,7 @@
         <v>48</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>8</v>
@@ -2100,10 +2090,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>11</v>
@@ -2112,7 +2102,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>153</v>
@@ -2126,51 +2116,51 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2178,207 +2168,207 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>79</v>
+      <c r="B45" t="s">
+        <v>169</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>173</v>
+      <c r="B46" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2386,25 +2376,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2412,76 +2402,50 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H55" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2684,18 +2648,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2717,6 +2681,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DACEE4-B390-44A7-883A-AFBB4DC509ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F76E9A0E-D7EE-4BF5-A12E-4E5F702CFFF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2730,12 +2702,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DACEE4-B390-44A7-883A-AFBB4DC509ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/PECO Jul 20.xlsx
+++ b/data/PECO Jul 20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marissa\Documents\Citation-Network-Analysis-New\Citation-Network-Analysis-New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F2D8A-14D5-4D18-9F9D-7F1D766096B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FE383A-4BDB-4BEE-9107-F612B1C6D85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -571,9 +571,6 @@
   </si>
   <si>
     <t>High school students</t>
-  </si>
-  <si>
-    <t>sytematic review</t>
   </si>
   <si>
     <t>ENDs and ENNDS for smoking cessation</t>
@@ -1005,8 +1002,8 @@
   <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2038,7 +2035,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>178</v>
@@ -2206,10 +2203,10 @@
         <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>78</v>
@@ -2648,18 +2645,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2681,14 +2678,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DACEE4-B390-44A7-883A-AFBB4DC509ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F76E9A0E-D7EE-4BF5-A12E-4E5F702CFFF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2702,4 +2691,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DACEE4-B390-44A7-883A-AFBB4DC509ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/PECO Jul 20.xlsx
+++ b/data/PECO Jul 20.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marissa\Documents\Citation-Network-Analysis-New\Citation-Network-Analysis-New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FE383A-4BDB-4BEE-9107-F612B1C6D85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D24E6A-F0A1-4689-B6F6-D4D59C004B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PECO Full" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Analysis of 53 influential " sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="248">
   <si>
     <t>id</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
     <t>Schober, W et al. (2014)</t>
   </si>
   <si>
@@ -577,13 +575,217 @@
   </si>
   <si>
     <t>Wills, TA et al. (2016a)</t>
+  </si>
+  <si>
+    <t>nrefs</t>
+  </si>
+  <si>
+    <t>McNeill, A et al. (2015a)</t>
+  </si>
+  <si>
+    <t>World Health Organization (2016)</t>
+  </si>
+  <si>
+    <t>Leventhal, AM et al. (2015)</t>
+  </si>
+  <si>
+    <t>Hartmann-Boyce, J et al. (2016)</t>
+  </si>
+  <si>
+    <t>World Health Organization (2014a)</t>
+  </si>
+  <si>
+    <t>Jensen, RP et al. (2015)</t>
+  </si>
+  <si>
+    <t>Britton, J and Bogdanovica, I (2014)</t>
+  </si>
+  <si>
+    <t>Barrington-Trimis, JL et al. (2016a)</t>
+  </si>
+  <si>
+    <t>Biener, L and Hargraves, J (2015)</t>
+  </si>
+  <si>
+    <t>Kalkhoran, S and Glantz, SA (2016)</t>
+  </si>
+  <si>
+    <t>McRobbie, H et al. (2014a)</t>
+  </si>
+  <si>
+    <t>The Royal College of Physicians (2016)</t>
+  </si>
+  <si>
+    <t>Bullen, CB et al. (2013)</t>
+  </si>
+  <si>
+    <t>Schober, W et al. (2014)</t>
+  </si>
+  <si>
+    <t>Schripp, T et al. (2013)</t>
+  </si>
+  <si>
+    <t>Goniewicz, ML et al. (2014a)</t>
+  </si>
+  <si>
+    <t>US Department of Health and Human Services (2014)</t>
+  </si>
+  <si>
+    <t>Pisinger, C and Døssing, M (2014)</t>
+  </si>
+  <si>
+    <t>Unger, JB et al. (2016)</t>
+  </si>
+  <si>
+    <t>Kosmider, L et al. (2014)</t>
+  </si>
+  <si>
+    <t>Geiss, O et al. (2016)</t>
+  </si>
+  <si>
+    <t>Khlystov, A and Samburova, V (2016)</t>
+  </si>
+  <si>
+    <t>Sleiman, M et al. (2016)</t>
+  </si>
+  <si>
+    <t>Dawkins, L et al. (2016)</t>
+  </si>
+  <si>
+    <t>Bauld, L et al. (2014)</t>
+  </si>
+  <si>
+    <t>Yan, XS and D'Ruiz, C (2015)</t>
+  </si>
+  <si>
+    <t>Vansickel, AR et al. (2010)</t>
+  </si>
+  <si>
+    <t>Bullen, CB et al. (2010)</t>
+  </si>
+  <si>
+    <t>Nides, MA et al. (2014)</t>
+  </si>
+  <si>
+    <t>Hajek, P et al. (2015a)</t>
+  </si>
+  <si>
+    <t>Hecht, SS et al. (2015)</t>
+  </si>
+  <si>
+    <t>Uchiyama, S et al. (2013)</t>
+  </si>
+  <si>
+    <t>Cheng, T (2014)</t>
+  </si>
+  <si>
+    <t>Mayer, B (2014)</t>
+  </si>
+  <si>
+    <t>Caponnetto, P et al. (2013a)</t>
+  </si>
+  <si>
+    <t>Hitchman, S et al. (2015)</t>
+  </si>
+  <si>
+    <t>Huang, J et al. (2014b)</t>
+  </si>
+  <si>
+    <t>Wills, TA et al. (2016a)</t>
+  </si>
+  <si>
+    <t>Brose, LS et al. (2015a)</t>
+  </si>
+  <si>
+    <t>Hess, IM et al. (2016)</t>
+  </si>
+  <si>
+    <t>Behar, R et al. (2014)</t>
+  </si>
+  <si>
+    <t>Harber, P et al. (2006)</t>
+  </si>
+  <si>
+    <t>Kreiss, K et al. (2002)</t>
+  </si>
+  <si>
+    <t>El Dib, R et al. (2017)</t>
+  </si>
+  <si>
+    <t>US Department of Health and Human Services (2012)</t>
+  </si>
+  <si>
+    <t>Lee, S et al. (2013)</t>
+  </si>
+  <si>
+    <t>Brown, J et al. (2014a)</t>
+  </si>
+  <si>
+    <t>Flouris, AD et al. (2013)</t>
+  </si>
+  <si>
+    <t>McAuley, TR et al. (2012)</t>
+  </si>
+  <si>
+    <t>Czogala, J et al. (2014)</t>
+  </si>
+  <si>
+    <t>Bahl, V et al. (2012)</t>
+  </si>
+  <si>
+    <t>Grana, R et al. (2014a)</t>
+  </si>
+  <si>
+    <t>Zhu, SH et al. (2014)</t>
+  </si>
+  <si>
+    <t>WHO 2014</t>
+  </si>
+  <si>
+    <t>WHO 2016</t>
+  </si>
+  <si>
+    <t>PHE 2015</t>
+  </si>
+  <si>
+    <t>PHE 2016</t>
+  </si>
+  <si>
+    <t>PHE 2018</t>
+  </si>
+  <si>
+    <t>PHE 2019</t>
+  </si>
+  <si>
+    <t>NICE 2018</t>
+  </si>
+  <si>
+    <t>NHS HS 2016</t>
+  </si>
+  <si>
+    <t>PHW 2017</t>
+  </si>
+  <si>
+    <t>NHMRC 2017</t>
+  </si>
+  <si>
+    <t>PHAA 2018</t>
+  </si>
+  <si>
+    <t>SGR 2016</t>
+  </si>
+  <si>
+    <t>FDA 2016</t>
+  </si>
+  <si>
+    <t>APHA 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +819,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -626,7 +851,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -649,11 +874,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -684,6 +920,25 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,9 +1256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,22 +1282,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1050,25 +1305,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1076,25 +1331,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1102,25 +1357,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1128,25 +1383,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1154,25 +1409,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -1180,25 +1435,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1206,25 +1461,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1232,25 +1487,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1258,25 +1513,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1284,25 +1539,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1310,25 +1565,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1336,25 +1591,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1362,25 +1617,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1388,25 +1643,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1414,25 +1669,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1440,25 +1695,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -1466,25 +1721,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -1492,25 +1747,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
@@ -1518,25 +1773,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -1544,25 +1799,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -1570,25 +1825,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -1596,25 +1851,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -1622,25 +1877,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1648,25 +1903,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1674,25 +1929,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1700,25 +1955,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -1726,25 +1981,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -1752,25 +2007,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -1778,25 +2033,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1804,25 +2059,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1830,25 +2085,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="5"/>
@@ -1879,25 +2134,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1905,25 +2160,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1931,25 +2186,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1957,25 +2212,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1983,25 +2238,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2009,25 +2264,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2035,25 +2290,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2061,25 +2316,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -2087,25 +2342,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -2113,25 +2368,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="G42" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2139,25 +2394,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2165,25 +2420,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="E44" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2191,25 +2446,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -2217,25 +2472,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="G46" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2243,25 +2498,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -2269,25 +2524,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2295,25 +2550,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="G49" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -2321,25 +2576,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="E50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="G50" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2347,25 +2602,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G51" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2373,25 +2628,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="E52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="G52" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2399,25 +2654,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G53" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -2425,25 +2680,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G54" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2454,57 +2709,448 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A1E3D7-1C8F-4CA2-A250-586AB25A7035}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="33.81640625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2512,7 +3158,2742 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010A05F5-CA2D-40F2-8B88-DB3548714E57}">
+  <dimension ref="A1:P54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" style="16" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="13">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="13">
+        <v>1</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="13">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="13">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="13">
+        <v>1</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="13">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="13">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="13">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="13">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="13">
+        <v>1</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="13">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="13">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="13">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="13">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="13">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="13">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="13">
+        <v>1</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="13">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>1</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="13">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13">
+        <v>1</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="13">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="13">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="13">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="13">
+        <v>1</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="13">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="13">
+        <v>3</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="13">
+        <v>1</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="13">
+        <v>1</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="13">
+        <v>3</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="13">
+        <v>1</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="13">
+        <v>1</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="13">
+        <v>3</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="13">
+        <v>1</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="13">
+        <v>3</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="13">
+        <v>1</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="13">
+        <v>1</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="13">
+        <v>3</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="13">
+        <v>1</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="13">
+        <v>3</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="13">
+        <v>1</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="13">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="13">
+        <v>1</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="13">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="13">
+        <v>1</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="13">
+        <v>3</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="13">
+        <v>1</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="13">
+        <v>3</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="13">
+        <v>1</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="13">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="13">
+        <v>1</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="13">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="13">
+        <v>1</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="13">
+        <v>3</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="13">
+        <v>1</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="13">
+        <v>1</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="13">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="13">
+        <v>1</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="13">
+        <v>1</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="13">
+        <v>3</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="13">
+        <v>1</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="13">
+        <v>3</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="13">
+        <v>1</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="13">
+        <v>3</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="13">
+        <v>3</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="13">
+        <v>1</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="13">
+        <v>3</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="13">
+        <v>1</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="13">
+        <v>3</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="13">
+        <v>3</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="13">
+        <v>1</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="13">
+        <v>3</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="13">
+        <v>1</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="13">
+        <v>1</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="13">
+        <v>3</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="13">
+        <v>1</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" s="13">
+        <v>1</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="13">
+        <v>3</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="13">
+        <v>1</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="13">
+        <v>1</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="13">
+        <v>3</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="13">
+        <v>1</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="13">
+        <v>3</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="13">
+        <v>1</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="13">
+        <v>3</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="13">
+        <v>1</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="13">
+        <v>3</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="13">
+        <v>1</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="13">
+        <v>3</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="13">
+        <v>1</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" s="13">
+        <v>3</v>
+      </c>
+      <c r="C50" s="13">
+        <v>1</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="13">
+        <v>1</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" s="13">
+        <v>1</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="13">
+        <v>3</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="13">
+        <v>1</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="13">
+        <v>3</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="13">
+        <v>1</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" s="13">
+        <v>3</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="13">
+        <v>1</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B54" s="13">
+        <v>3</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="13">
+        <v>1</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF7793DA0DEC7646B4067AE33236EE6A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a48280fc6c2b4371bf74abb2bee37b06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c55d3ce8-937e-4dcf-883e-347e1ce052b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="81c33a3acb51a74fa588efcfe98e5c44" ns3:_="">
     <xsd:import namespace="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
@@ -2644,35 +6025,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8068956F-FE7C-4286-A5F2-2ED11E40F0B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DACEE4-B390-44A7-883A-AFBB4DC509ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2694,9 +6050,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DACEE4-B390-44A7-883A-AFBB4DC509ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8068956F-FE7C-4286-A5F2-2ED11E40F0B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/PECO Jul 20.xlsx
+++ b/data/PECO Jul 20.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marissa\Documents\Citation-Network-Analysis-New\Citation-Network-Analysis-New\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D24E6A-F0A1-4689-B6F6-D4D59C004B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EFCD10-3B05-44AD-945C-9D624A56C5BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="0" windowWidth="10170" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PECO Full" sheetId="3" r:id="rId1"/>
-    <sheet name="Analysis of 53 influential " sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="248">
   <si>
     <t>id</t>
   </si>
@@ -1256,9 +1255,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2708,462 +2708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A1E3D7-1C8F-4CA2-A250-586AB25A7035}">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="33.81640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010A05F5-CA2D-40F2-8B88-DB3548714E57}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3772,7 +3321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>192</v>
       </c>
@@ -5879,21 +5428,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF7793DA0DEC7646B4067AE33236EE6A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a48280fc6c2b4371bf74abb2bee37b06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c55d3ce8-937e-4dcf-883e-347e1ce052b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="81c33a3acb51a74fa588efcfe98e5c44" ns3:_="">
     <xsd:import namespace="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
@@ -6025,10 +5559,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DACEE4-B390-44A7-883A-AFBB4DC509ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8068956F-FE7C-4286-A5F2-2ED11E40F0B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6050,19 +5609,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8068956F-FE7C-4286-A5F2-2ED11E40F0B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2DACEE4-B390-44A7-883A-AFBB4DC509ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>